--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table_Tier_1_2_edited.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table_Tier_1_2_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE53D0E-9D92-4142-91BC-889697F7070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D01EB20-F679-492C-9B3E-74C8DE130446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1824" windowWidth="22224" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17580" yWindow="-15570" windowWidth="25845" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$K$394</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3897,23 +3896,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D241" sqref="D241:D245"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3948,7 +3946,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4020,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4056,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4128,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -4236,7 +4234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -4272,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4308,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4344,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -4380,7 +4378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -4416,7 +4414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -4488,7 +4486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -4560,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -4596,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4632,7 +4630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -4668,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -4704,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -4740,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -4776,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -4812,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4848,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -4884,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -4920,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -4956,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -4992,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -5064,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -5100,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -5136,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5172,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -5208,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -5244,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -5280,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -5316,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -5352,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -5388,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -5424,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -5460,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -5496,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -5532,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -5604,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>151</v>
       </c>
@@ -5640,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -5676,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>157</v>
       </c>
@@ -5712,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -5748,7 +5746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>165</v>
       </c>
@@ -5784,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -5820,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>174</v>
       </c>
@@ -5856,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -5892,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5928,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>183</v>
       </c>
@@ -5964,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -6000,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>187</v>
       </c>
@@ -6036,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -6072,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -6108,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>197</v>
       </c>
@@ -6144,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -6180,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>203</v>
       </c>
@@ -6216,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>206</v>
       </c>
@@ -6252,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>208</v>
       </c>
@@ -6288,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>210</v>
       </c>
@@ -6324,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>213</v>
       </c>
@@ -6360,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -6396,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -6432,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -6468,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -6504,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>228</v>
       </c>
@@ -6540,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>231</v>
       </c>
@@ -6573,7 +6571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>235</v>
       </c>
@@ -6606,7 +6604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>238</v>
       </c>
@@ -6639,7 +6637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>239</v>
       </c>
@@ -6672,7 +6670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>241</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>247</v>
       </c>
@@ -6744,7 +6742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>250</v>
       </c>
@@ -6780,7 +6778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>254</v>
       </c>
@@ -6816,7 +6814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>257</v>
       </c>
@@ -6852,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>262</v>
       </c>
@@ -6888,7 +6886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>264</v>
       </c>
@@ -6924,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>266</v>
       </c>
@@ -6960,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>271</v>
       </c>
@@ -6996,7 +6994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>276</v>
       </c>
@@ -7032,7 +7030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>277</v>
       </c>
@@ -7068,7 +7066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>278</v>
       </c>
@@ -7104,7 +7102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>280</v>
       </c>
@@ -7140,7 +7138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>281</v>
       </c>
@@ -7176,7 +7174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>284</v>
       </c>
@@ -7212,7 +7210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>285</v>
       </c>
@@ -7248,7 +7246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>287</v>
       </c>
@@ -7284,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>291</v>
       </c>
@@ -7320,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>293</v>
       </c>
@@ -7356,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>294</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -7428,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>298</v>
       </c>
@@ -7464,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>300</v>
       </c>
@@ -7500,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>303</v>
       </c>
@@ -7536,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -7572,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -7608,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -7680,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -7716,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -7752,7 +7750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>321</v>
       </c>
@@ -7788,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>323</v>
       </c>
@@ -7824,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -7860,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>325</v>
       </c>
@@ -7896,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>326</v>
       </c>
@@ -7932,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>327</v>
       </c>
@@ -7968,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>329</v>
       </c>
@@ -8004,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -8040,7 +8038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>334</v>
       </c>
@@ -8076,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>337</v>
       </c>
@@ -8112,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>340</v>
       </c>
@@ -8148,7 +8146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>342</v>
       </c>
@@ -8184,7 +8182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>343</v>
       </c>
@@ -8220,7 +8218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>344</v>
       </c>
@@ -8256,7 +8254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>346</v>
       </c>
@@ -8292,7 +8290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>350</v>
       </c>
@@ -8328,7 +8326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>352</v>
       </c>
@@ -8364,7 +8362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>354</v>
       </c>
@@ -8400,7 +8398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>355</v>
       </c>
@@ -8436,7 +8434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>356</v>
       </c>
@@ -8472,7 +8470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>359</v>
       </c>
@@ -8508,7 +8506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>360</v>
       </c>
@@ -8544,7 +8542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>361</v>
       </c>
@@ -8580,7 +8578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>363</v>
       </c>
@@ -8616,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>369</v>
       </c>
@@ -8652,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>373</v>
       </c>
@@ -8688,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>375</v>
       </c>
@@ -8724,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>377</v>
       </c>
@@ -8760,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>380</v>
       </c>
@@ -8796,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>382</v>
       </c>
@@ -8832,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>383</v>
       </c>
@@ -8868,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>385</v>
       </c>
@@ -8904,7 +8902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>388</v>
       </c>
@@ -8940,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>389</v>
       </c>
@@ -8976,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>392</v>
       </c>
@@ -9012,7 +9010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>396</v>
       </c>
@@ -9048,7 +9046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>399</v>
       </c>
@@ -9084,7 +9082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>401</v>
       </c>
@@ -9120,7 +9118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>404</v>
       </c>
@@ -9156,7 +9154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>407</v>
       </c>
@@ -9192,7 +9190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>410</v>
       </c>
@@ -9228,7 +9226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>413</v>
       </c>
@@ -9264,7 +9262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>416</v>
       </c>
@@ -9300,7 +9298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>420</v>
       </c>
@@ -9336,7 +9334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>423</v>
       </c>
@@ -9372,7 +9370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>425</v>
       </c>
@@ -9408,7 +9406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>426</v>
       </c>
@@ -9444,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>428</v>
       </c>
@@ -9480,7 +9478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>430</v>
       </c>
@@ -9516,7 +9514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>432</v>
       </c>
@@ -9552,7 +9550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>433</v>
       </c>
@@ -9588,7 +9586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>436</v>
       </c>
@@ -9624,7 +9622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>438</v>
       </c>
@@ -9660,7 +9658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>439</v>
       </c>
@@ -9693,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>442</v>
       </c>
@@ -9726,7 +9724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>444</v>
       </c>
@@ -9762,7 +9760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>445</v>
       </c>
@@ -9798,7 +9796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -9834,7 +9832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>451</v>
       </c>
@@ -9870,7 +9868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>453</v>
       </c>
@@ -9906,7 +9904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>455</v>
       </c>
@@ -9942,7 +9940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>456</v>
       </c>
@@ -9975,7 +9973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>457</v>
       </c>
@@ -10008,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>459</v>
       </c>
@@ -10041,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>460</v>
       </c>
@@ -10077,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>461</v>
       </c>
@@ -10113,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>463</v>
       </c>
@@ -10149,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>465</v>
       </c>
@@ -10185,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>466</v>
       </c>
@@ -10221,7 +10219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>467</v>
       </c>
@@ -10257,7 +10255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>471</v>
       </c>
@@ -10293,7 +10291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>474</v>
       </c>
@@ -10329,7 +10327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>476</v>
       </c>
@@ -10365,7 +10363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>477</v>
       </c>
@@ -10401,7 +10399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>479</v>
       </c>
@@ -10437,7 +10435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>482</v>
       </c>
@@ -10473,7 +10471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>485</v>
       </c>
@@ -10509,7 +10507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>487</v>
       </c>
@@ -10545,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>489</v>
       </c>
@@ -10581,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>492</v>
       </c>
@@ -10617,7 +10615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>494</v>
       </c>
@@ -10653,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>496</v>
       </c>
@@ -10689,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>497</v>
       </c>
@@ -10725,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>498</v>
       </c>
@@ -10761,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>499</v>
       </c>
@@ -10797,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>500</v>
       </c>
@@ -10833,7 +10831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>501</v>
       </c>
@@ -10869,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>502</v>
       </c>
@@ -10905,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>506</v>
       </c>
@@ -10941,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>509</v>
       </c>
@@ -10977,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>512</v>
       </c>
@@ -11013,7 +11011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>514</v>
       </c>
@@ -11049,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>515</v>
       </c>
@@ -11085,7 +11083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>517</v>
       </c>
@@ -11121,7 +11119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>520</v>
       </c>
@@ -11157,7 +11155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>523</v>
       </c>
@@ -11193,7 +11191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>525</v>
       </c>
@@ -11229,7 +11227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>526</v>
       </c>
@@ -11265,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>528</v>
       </c>
@@ -11301,7 +11299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>531</v>
       </c>
@@ -11337,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>534</v>
       </c>
@@ -11373,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>535</v>
       </c>
@@ -11409,7 +11407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>536</v>
       </c>
@@ -11445,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>538</v>
       </c>
@@ -11481,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>541</v>
       </c>
@@ -11517,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>543</v>
       </c>
@@ -11553,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>546</v>
       </c>
@@ -11589,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>548</v>
       </c>
@@ -11625,7 +11623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>550</v>
       </c>
@@ -11661,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>554</v>
       </c>
@@ -11697,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>556</v>
       </c>
@@ -11733,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>558</v>
       </c>
@@ -11769,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>559</v>
       </c>
@@ -11805,7 +11803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>560</v>
       </c>
@@ -11841,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>562</v>
       </c>
@@ -11877,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>563</v>
       </c>
@@ -11913,7 +11911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>565</v>
       </c>
@@ -11949,7 +11947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>570</v>
       </c>
@@ -11985,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>573</v>
       </c>
@@ -12021,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>574</v>
       </c>
@@ -12057,7 +12055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>577</v>
       </c>
@@ -12093,7 +12091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>580</v>
       </c>
@@ -12129,7 +12127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>581</v>
       </c>
@@ -12165,7 +12163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>584</v>
       </c>
@@ -12201,7 +12199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>587</v>
       </c>
@@ -12237,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>590</v>
       </c>
@@ -12273,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>593</v>
       </c>
@@ -12309,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>596</v>
       </c>
@@ -12345,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>600</v>
       </c>
@@ -12381,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>603</v>
       </c>
@@ -12417,7 +12415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>604</v>
       </c>
@@ -12453,7 +12451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>607</v>
       </c>
@@ -12489,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>609</v>
       </c>
@@ -12525,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>612</v>
       </c>
@@ -12558,7 +12556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>616</v>
       </c>
@@ -12591,7 +12589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>618</v>
       </c>
@@ -12624,7 +12622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>621</v>
       </c>
@@ -12657,7 +12655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>624</v>
       </c>
@@ -12690,7 +12688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>627</v>
       </c>
@@ -12723,7 +12721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>630</v>
       </c>
@@ -12756,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>632</v>
       </c>
@@ -12789,7 +12787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>633</v>
       </c>
@@ -12822,7 +12820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>636</v>
       </c>
@@ -12855,7 +12853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>639</v>
       </c>
@@ -12891,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>641</v>
       </c>
@@ -12927,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>644</v>
       </c>
@@ -12963,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>647</v>
       </c>
@@ -12999,7 +12997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>649</v>
       </c>
@@ -13032,7 +13030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>653</v>
       </c>
@@ -13068,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>656</v>
       </c>
@@ -13101,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>659</v>
       </c>
@@ -13134,7 +13132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>663</v>
       </c>
@@ -13170,7 +13168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>665</v>
       </c>
@@ -13203,7 +13201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>669</v>
       </c>
@@ -13236,7 +13234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>671</v>
       </c>
@@ -13269,7 +13267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>673</v>
       </c>
@@ -13302,7 +13300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>678</v>
       </c>
@@ -13335,7 +13333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>681</v>
       </c>
@@ -13368,7 +13366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>683</v>
       </c>
@@ -13401,7 +13399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>684</v>
       </c>
@@ -13434,7 +13432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>689</v>
       </c>
@@ -13467,7 +13465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>692</v>
       </c>
@@ -13500,7 +13498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>694</v>
       </c>
@@ -13533,7 +13531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>695</v>
       </c>
@@ -13566,7 +13564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>696</v>
       </c>
@@ -13599,7 +13597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>698</v>
       </c>
@@ -13632,7 +13630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>699</v>
       </c>
@@ -13665,7 +13663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>700</v>
       </c>
@@ -13698,7 +13696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>701</v>
       </c>
@@ -13731,7 +13729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>703</v>
       </c>
@@ -13764,7 +13762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>705</v>
       </c>
@@ -13797,7 +13795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>708</v>
       </c>
@@ -13830,7 +13828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>711</v>
       </c>
@@ -13863,7 +13861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>714</v>
       </c>
@@ -13896,7 +13894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>716</v>
       </c>
@@ -13929,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>717</v>
       </c>
@@ -13962,7 +13960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>718</v>
       </c>
@@ -13995,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>720</v>
       </c>
@@ -14028,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>721</v>
       </c>
@@ -14061,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>722</v>
       </c>
@@ -14097,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>724</v>
       </c>
@@ -14133,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>726</v>
       </c>
@@ -14169,7 +14167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>727</v>
       </c>
@@ -14205,7 +14203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>731</v>
       </c>
@@ -14241,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>734</v>
       </c>
@@ -14277,7 +14275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>735</v>
       </c>
@@ -14313,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>737</v>
       </c>
@@ -14349,7 +14347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>740</v>
       </c>
@@ -14382,7 +14380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>742</v>
       </c>
@@ -14415,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>745</v>
       </c>
@@ -14451,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>747</v>
       </c>
@@ -14487,7 +14485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>749</v>
       </c>
@@ -14523,7 +14521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>751</v>
       </c>
@@ -14556,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>755</v>
       </c>
@@ -14589,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>757</v>
       </c>
@@ -14622,7 +14620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>760</v>
       </c>
@@ -14655,7 +14653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>762</v>
       </c>
@@ -14688,7 +14686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>763</v>
       </c>
@@ -14718,7 +14716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>764</v>
       </c>
@@ -14751,7 +14749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>765</v>
       </c>
@@ -14784,7 +14782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>766</v>
       </c>
@@ -14817,7 +14815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>767</v>
       </c>
@@ -14850,7 +14848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>769</v>
       </c>
@@ -14883,7 +14881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>770</v>
       </c>
@@ -14916,7 +14914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>771</v>
       </c>
@@ -14949,7 +14947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>772</v>
       </c>
@@ -14982,7 +14980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>775</v>
       </c>
@@ -15015,7 +15013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>776</v>
       </c>
@@ -15048,7 +15046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>780</v>
       </c>
@@ -15081,7 +15079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>781</v>
       </c>
@@ -15114,7 +15112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>782</v>
       </c>
@@ -15150,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>784</v>
       </c>
@@ -15183,7 +15181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>786</v>
       </c>
@@ -15216,7 +15214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>787</v>
       </c>
@@ -15249,7 +15247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>789</v>
       </c>
@@ -15282,7 +15280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>791</v>
       </c>
@@ -15315,7 +15313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>795</v>
       </c>
@@ -15351,7 +15349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>797</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>799</v>
       </c>
@@ -15423,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>802</v>
       </c>
@@ -15459,7 +15457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>805</v>
       </c>
@@ -15492,7 +15490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>806</v>
       </c>
@@ -15525,7 +15523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>807</v>
       </c>
@@ -15558,7 +15556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>808</v>
       </c>
@@ -15591,7 +15589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>810</v>
       </c>
@@ -15627,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>811</v>
       </c>
@@ -15660,7 +15658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>812</v>
       </c>
@@ -15693,7 +15691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>815</v>
       </c>
@@ -15726,7 +15724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>817</v>
       </c>
@@ -15759,7 +15757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>818</v>
       </c>
@@ -15792,7 +15790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>819</v>
       </c>
@@ -15825,7 +15823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>821</v>
       </c>
@@ -15858,7 +15856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>822</v>
       </c>
@@ -15891,7 +15889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>823</v>
       </c>
@@ -15927,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>826</v>
       </c>
@@ -15963,7 +15961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>830</v>
       </c>
@@ -15999,7 +15997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>832</v>
       </c>
@@ -16032,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>834</v>
       </c>
@@ -16065,7 +16063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>837</v>
       </c>
@@ -16098,7 +16096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>838</v>
       </c>
@@ -16131,7 +16129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>839</v>
       </c>
@@ -16164,7 +16162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>840</v>
       </c>
@@ -16197,7 +16195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>841</v>
       </c>
@@ -16233,7 +16231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>843</v>
       </c>
@@ -16269,7 +16267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>845</v>
       </c>
@@ -16302,7 +16300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>848</v>
       </c>
@@ -16335,7 +16333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>852</v>
       </c>
@@ -16371,7 +16369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>855</v>
       </c>
@@ -16407,7 +16405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>858</v>
       </c>
@@ -16440,7 +16438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>859</v>
       </c>
@@ -16473,7 +16471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>860</v>
       </c>
@@ -16506,7 +16504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>862</v>
       </c>
@@ -16539,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>866</v>
       </c>
@@ -16572,7 +16570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>867</v>
       </c>
@@ -16605,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>870</v>
       </c>
@@ -16638,7 +16636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>874</v>
       </c>
@@ -16671,7 +16669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>876</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>879</v>
       </c>
@@ -16737,7 +16735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>880</v>
       </c>
@@ -16770,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>881</v>
       </c>
@@ -16803,7 +16801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>883</v>
       </c>
@@ -16836,7 +16834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>884</v>
       </c>
@@ -16869,7 +16867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>885</v>
       </c>
@@ -16905,7 +16903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>886</v>
       </c>
@@ -16941,7 +16939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>890</v>
       </c>
@@ -16977,7 +16975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>893</v>
       </c>
@@ -17013,7 +17011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>895</v>
       </c>
@@ -17046,7 +17044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>898</v>
       </c>
@@ -17079,7 +17077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>899</v>
       </c>
@@ -17112,7 +17110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>900</v>
       </c>
@@ -17145,7 +17143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>903</v>
       </c>
@@ -17178,7 +17176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>904</v>
       </c>
@@ -17211,7 +17209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>905</v>
       </c>
@@ -17244,7 +17242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>906</v>
       </c>
@@ -17280,7 +17278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>909</v>
       </c>
@@ -17316,7 +17314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>912</v>
       </c>
@@ -17349,7 +17347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>915</v>
       </c>
@@ -17382,7 +17380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>916</v>
       </c>
@@ -17415,7 +17413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>917</v>
       </c>
@@ -17448,7 +17446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>918</v>
       </c>
@@ -17481,7 +17479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>921</v>
       </c>
@@ -17514,7 +17512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>922</v>
       </c>
@@ -17547,7 +17545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>923</v>
       </c>
@@ -17583,7 +17581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>925</v>
       </c>
@@ -17616,7 +17614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>926</v>
       </c>
@@ -17649,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>929</v>
       </c>
@@ -17682,7 +17680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>930</v>
       </c>
@@ -17716,13 +17714,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K394" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K394" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -17747,13 +17739,13 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="3" max="15" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="3" max="15" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -17806,7 +17798,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -17849,7 +17841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>947</v>
       </c>
@@ -17904,7 +17896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -17947,7 +17939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>950</v>
       </c>
@@ -18002,7 +17994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>952</v>
       </c>
@@ -18057,7 +18049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -18112,7 +18104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>955</v>
       </c>
@@ -18167,7 +18159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -18210,7 +18202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -18265,7 +18257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>959</v>
       </c>
@@ -18320,7 +18312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>961</v>
       </c>
@@ -18375,7 +18367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>963</v>
       </c>
@@ -18416,7 +18408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>964</v>
       </c>
@@ -18471,7 +18463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -18526,7 +18518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>967</v>
       </c>
@@ -18581,7 +18573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -18636,7 +18628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -18691,7 +18683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>674</v>
       </c>
@@ -18746,7 +18738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>972</v>
       </c>
@@ -18785,7 +18777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>685</v>
       </c>
@@ -18840,7 +18832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>975</v>
       </c>
@@ -18895,7 +18887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>697</v>
       </c>
@@ -18950,7 +18942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>978</v>
       </c>
@@ -19005,7 +18997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>980</v>
       </c>
@@ -19060,7 +19052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>982</v>
       </c>
@@ -19115,7 +19107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>984</v>
       </c>
@@ -19170,7 +19162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>986</v>
       </c>
@@ -19225,7 +19217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>988</v>
       </c>
@@ -19280,7 +19272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>990</v>
       </c>
@@ -19335,7 +19327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>709</v>
       </c>
@@ -19390,7 +19382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>993</v>
       </c>
@@ -19445,7 +19437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>995</v>
       </c>
@@ -19484,7 +19476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>997</v>
       </c>
@@ -19539,7 +19531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -19594,7 +19586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -19649,7 +19641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>195</v>
       </c>
@@ -19704,7 +19696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -19759,7 +19751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1003</v>
       </c>
@@ -19814,7 +19806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1005</v>
       </c>
@@ -19869,7 +19861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1007</v>
       </c>
@@ -19924,7 +19916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1009</v>
       </c>
@@ -19979,7 +19971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1011</v>
       </c>
@@ -20034,7 +20026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1013</v>
       </c>
@@ -20089,7 +20081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>758</v>
       </c>
@@ -20144,7 +20136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1016</v>
       </c>
@@ -20183,7 +20175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1018</v>
       </c>
@@ -20238,7 +20230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1020</v>
       </c>
@@ -20293,7 +20285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1022</v>
       </c>
@@ -20332,7 +20324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1024</v>
       </c>
@@ -20387,7 +20379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>220</v>
       </c>
@@ -20430,7 +20422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>225</v>
       </c>
@@ -20485,7 +20477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1028</v>
       </c>
@@ -20540,7 +20532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>788</v>
       </c>
@@ -20595,7 +20587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1031</v>
       </c>
@@ -20650,7 +20642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>232</v>
       </c>
@@ -20705,7 +20697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -20748,7 +20740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -20803,7 +20795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -20858,7 +20850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>777</v>
       </c>
@@ -20913,7 +20905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>242</v>
       </c>
@@ -20968,7 +20960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1039</v>
       </c>
@@ -21023,7 +21015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>267</v>
       </c>
@@ -21078,7 +21070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>364</v>
       </c>
@@ -21133,7 +21125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>468</v>
       </c>
@@ -21188,7 +21180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>527</v>
       </c>
@@ -21243,7 +21235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>913</v>
       </c>
@@ -21298,7 +21290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1046</v>
       </c>
@@ -21337,7 +21329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>272</v>
       </c>
@@ -21392,7 +21384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -21447,7 +21439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>296</v>
       </c>
@@ -21502,7 +21494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>322</v>
       </c>
@@ -21557,7 +21549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>330</v>
       </c>
@@ -21612,7 +21604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>341</v>
       </c>
@@ -21667,7 +21659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>347</v>
       </c>
@@ -21722,7 +21714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>162</v>
       </c>
@@ -21777,7 +21769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1056</v>
       </c>
@@ -21832,7 +21824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1058</v>
       </c>
@@ -21887,7 +21879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>551</v>
       </c>
@@ -21942,7 +21934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>927</v>
       </c>
@@ -21997,7 +21989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1062</v>
       </c>
@@ -22052,7 +22044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1064</v>
       </c>
@@ -22107,7 +22099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>397</v>
       </c>
@@ -22150,7 +22142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1067</v>
       </c>
@@ -22205,7 +22197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1069</v>
       </c>
@@ -22260,7 +22252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1071</v>
       </c>
@@ -22299,7 +22291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1073</v>
       </c>
@@ -22338,7 +22330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1075</v>
       </c>
@@ -22377,7 +22369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>417</v>
       </c>
@@ -22420,7 +22412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1078</v>
       </c>
@@ -22463,7 +22455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>849</v>
       </c>
@@ -22506,7 +22498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>434</v>
       </c>
@@ -22549,7 +22541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1080</v>
       </c>
@@ -22588,7 +22580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>429</v>
       </c>
@@ -22631,7 +22623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>408</v>
       </c>
@@ -22674,7 +22666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>405</v>
       </c>
@@ -22717,7 +22709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>421</v>
       </c>
@@ -22760,7 +22752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1086</v>
       </c>
@@ -22803,7 +22795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>440</v>
       </c>
@@ -22846,7 +22838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>443</v>
       </c>
@@ -22889,7 +22881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>449</v>
       </c>
@@ -22932,7 +22924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1090</v>
       </c>
@@ -22987,7 +22979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1092</v>
       </c>
@@ -23042,7 +23034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1094</v>
       </c>
@@ -23097,7 +23089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>882</v>
       </c>
@@ -23152,7 +23144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1097</v>
       </c>
@@ -23207,7 +23199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1099</v>
       </c>
@@ -23262,7 +23254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>488</v>
       </c>
@@ -23305,7 +23297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1102</v>
       </c>
@@ -23360,7 +23352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1104</v>
       </c>
@@ -23399,7 +23391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1106</v>
       </c>
@@ -23438,7 +23430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1108</v>
       </c>
@@ -23477,7 +23469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1110</v>
       </c>
@@ -23516,7 +23508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>503</v>
       </c>
@@ -23559,7 +23551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1112</v>
       </c>
@@ -23602,7 +23594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1114</v>
       </c>
@@ -23657,7 +23649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1116</v>
       </c>
@@ -23712,7 +23704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>768</v>
       </c>
@@ -23767,7 +23759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1119</v>
       </c>
@@ -23822,7 +23814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1121</v>
       </c>
@@ -23861,7 +23853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1122</v>
       </c>
@@ -23916,7 +23908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>524</v>
       </c>
@@ -23959,7 +23951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1125</v>
       </c>
@@ -24002,7 +23994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1127</v>
       </c>
@@ -24057,7 +24049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1129</v>
       </c>
@@ -24112,7 +24104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>66</v>
       </c>
@@ -24167,7 +24159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1132</v>
       </c>
@@ -24222,7 +24214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1134</v>
       </c>
@@ -24277,7 +24269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1136</v>
       </c>
@@ -24332,7 +24324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1138</v>
       </c>
@@ -24387,7 +24379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>706</v>
       </c>
@@ -24442,7 +24434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>393</v>
       </c>
@@ -24497,7 +24489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>752</v>
       </c>
@@ -24552,7 +24544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>564</v>
       </c>
@@ -24607,7 +24599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1144</v>
       </c>
@@ -24662,7 +24654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1146</v>
       </c>
@@ -24701,7 +24693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1148</v>
       </c>
@@ -24744,7 +24736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1150</v>
       </c>
@@ -24799,7 +24791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>566</v>
       </c>
@@ -24854,7 +24846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>597</v>
       </c>
@@ -24909,7 +24901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>613</v>
       </c>
@@ -24964,7 +24956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>631</v>
       </c>
@@ -25019,7 +25011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>610</v>
       </c>
@@ -25074,7 +25066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1157</v>
       </c>
@@ -25129,7 +25121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1159</v>
       </c>
@@ -25184,7 +25176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1161</v>
       </c>
@@ -25227,7 +25219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1163</v>
       </c>
@@ -25270,7 +25262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1164</v>
       </c>
@@ -25325,7 +25317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>645</v>
       </c>
